--- a/Images_and_Data/Data/World_pop_proj.xlsx
+++ b/Images_and_Data/Data/World_pop_proj.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3462C250-7632-4F56-8860-E74AA218D33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5288E9C-066F-4FC5-8FC5-A4DCB26F8406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16305" windowHeight="13995"/>
+    <workbookView xWindow="11415" yWindow="1260" windowWidth="16305" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World_population_estimates3" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,16 @@
     <t>Year</t>
   </si>
   <si>
-    <t>census</t>
+    <t>US_Census</t>
   </si>
   <si>
-    <t>un</t>
+    <t>UN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -868,10 +868,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/Images_and_Data/Data/World_pop_proj.xlsx
+++ b/Images_and_Data/Data/World_pop_proj.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5288E9C-066F-4FC5-8FC5-A4DCB26F8406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87AB4F3-A3D9-4C07-91A2-98915B903524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11415" yWindow="1260" windowWidth="16305" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="World_population_estimates3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -35,6 +48,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -512,8 +528,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -872,10 +889,14 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -892,384 +913,495 @@
       <c r="A2">
         <v>2016</v>
       </c>
-      <c r="B2">
-        <v>7334771614</v>
-      </c>
-      <c r="C2">
-        <v>7432663280</v>
+      <c r="B2" s="1">
+        <v>7.3347716140000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7.4326632799999999</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2017</v>
       </c>
-      <c r="B3">
-        <v>7412778971</v>
+      <c r="B3" s="1">
+        <v>7.4127789709999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.5140367100000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
-      <c r="B4">
-        <v>7490427640</v>
+      <c r="B4" s="1">
+        <v>7.4904276400000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.5954101400000003</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
-      <c r="B5">
-        <v>7567402977</v>
+      <c r="B5" s="1">
+        <v>7.5674029770000004</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.6767835699999996</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
-      <c r="B6">
-        <v>7643402123</v>
-      </c>
-      <c r="C6">
-        <v>7758157000</v>
+      <c r="B6" s="1">
+        <v>7.6434021230000004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.7581569999999997</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2021</v>
       </c>
-      <c r="B7">
-        <v>7718256830</v>
+      <c r="B7" s="1">
+        <v>7.7182568299999996</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.8348578</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2022</v>
       </c>
-      <c r="B8">
-        <v>7792021317</v>
+      <c r="B8" s="1">
+        <v>7.7920213169999997</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.8808782800000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2023</v>
       </c>
-      <c r="B9">
-        <v>7864725370</v>
+      <c r="B9" s="1">
+        <v>7.8647253700000004</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7.9882593999999996</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2024</v>
       </c>
-      <c r="B10">
-        <v>7936271554</v>
+      <c r="B10" s="1">
+        <v>7.9362715540000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.0649601999999998</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2025</v>
       </c>
-      <c r="B11">
-        <v>8006580553</v>
-      </c>
-      <c r="C11">
-        <v>8141661000</v>
+      <c r="B11" s="1">
+        <v>8.0065805529999992</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.1416609999999991</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2026</v>
       </c>
-      <c r="B12">
-        <v>8075716000</v>
+      <c r="B12" s="1">
+        <v>8.0757159999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.2134820000000008</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2027</v>
       </c>
-      <c r="B13">
-        <v>8143729466</v>
+      <c r="B13" s="1">
+        <v>8.1437294659999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.2565746000000004</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2028</v>
       </c>
-      <c r="B14">
-        <v>8210559895</v>
+      <c r="B14" s="1">
+        <v>8.2105598949999994</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.3571240000000007</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2029</v>
       </c>
-      <c r="B15">
-        <v>8276190519</v>
+      <c r="B15" s="1">
+        <v>8.276190519</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8.4289450000000006</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2030</v>
       </c>
-      <c r="B16">
-        <v>8340606590</v>
-      </c>
-      <c r="C16">
-        <v>8500766000</v>
+      <c r="B16" s="1">
+        <v>8.3406065900000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8.5007660000000005</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2031</v>
       </c>
-      <c r="B17">
-        <v>8403880343</v>
+      <c r="B17" s="1">
+        <v>8.4038803430000009</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8.5683944000000007</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2032</v>
       </c>
-      <c r="B18">
-        <v>8466094022</v>
+      <c r="B18" s="1">
+        <v>8.4660940220000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8.6089714399999995</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2033</v>
       </c>
-      <c r="B19">
-        <v>8527246205</v>
+      <c r="B19" s="1">
+        <v>8.5272462050000009</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8.7036511999999995</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2034</v>
       </c>
-      <c r="B20">
-        <v>8587325154</v>
+      <c r="B20" s="1">
+        <v>8.5873251540000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8.7712795999999997</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2035</v>
       </c>
-      <c r="B21">
-        <v>8646304704</v>
-      </c>
-      <c r="C21">
-        <v>8838908000</v>
+      <c r="B21" s="1">
+        <v>8.6463047040000003</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8.838908</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2036</v>
       </c>
-      <c r="B22">
-        <v>8704239274</v>
+      <c r="B22" s="1">
+        <v>8.7042392740000007</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8.9025732000000009</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2037</v>
       </c>
-      <c r="B23">
-        <v>8761189197</v>
+      <c r="B23" s="1">
+        <v>8.7611891970000002</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8.9407723200000007</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2038</v>
       </c>
-      <c r="B24">
-        <v>8817138785</v>
+      <c r="B24" s="1">
+        <v>8.8171387849999991</v>
+      </c>
+      <c r="C24" s="1">
+        <v>9.0299036000000008</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2039</v>
       </c>
-      <c r="B25">
-        <v>8872066537</v>
+      <c r="B25" s="1">
+        <v>8.8720665370000003</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9.0935687999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2040</v>
       </c>
-      <c r="B26">
-        <v>8925949679</v>
-      </c>
-      <c r="C26">
-        <v>9157234000</v>
+      <c r="B26" s="1">
+        <v>8.9259496790000004</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9.1572340000000008</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2041</v>
       </c>
-      <c r="B27">
-        <v>8978822945</v>
+      <c r="B27" s="1">
+        <v>8.9788229449999992</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9.2165655999999991</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2042</v>
       </c>
-      <c r="B28">
-        <v>9030723366</v>
+      <c r="B28" s="1">
+        <v>9.0307233660000001</v>
+      </c>
+      <c r="C28" s="1">
+        <v>9.2521645600000006</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2043</v>
       </c>
-      <c r="B29">
-        <v>9081617002</v>
+      <c r="B29" s="1">
+        <v>9.0816170019999998</v>
+      </c>
+      <c r="C29" s="1">
+        <v>9.3352287999999994</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2044</v>
       </c>
-      <c r="B30">
-        <v>9131462326</v>
+      <c r="B30" s="1">
+        <v>9.1314623259999994</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9.3945603999999996</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2045</v>
       </c>
-      <c r="B31">
-        <v>9180225214</v>
-      </c>
-      <c r="C31">
-        <v>9453892000</v>
+      <c r="B31" s="1">
+        <v>9.180225214</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9.4538919999999997</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2046</v>
       </c>
-      <c r="B32">
-        <v>9227935007</v>
+      <c r="B32" s="1">
+        <v>9.2279350069999992</v>
+      </c>
+      <c r="C32" s="1">
+        <v>9.5081431999999992</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2047</v>
       </c>
-      <c r="B33">
-        <v>9274616811</v>
+      <c r="B33" s="1">
+        <v>9.2746168109999996</v>
+      </c>
+      <c r="C33" s="1">
+        <v>9.5406939200000007</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2048</v>
       </c>
-      <c r="B34">
-        <v>9320232984</v>
+      <c r="B34" s="1">
+        <v>9.3202329840000004</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9.6166456</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2049</v>
       </c>
-      <c r="B35">
-        <v>9364750182</v>
+      <c r="B35" s="1">
+        <v>9.3647501819999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9.6708967999999995</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2050</v>
       </c>
-      <c r="B36">
-        <v>9408141302</v>
-      </c>
-      <c r="C36">
-        <v>9725148000</v>
+      <c r="B36" s="1">
+        <v>9.4081413020000006</v>
+      </c>
+      <c r="C36" s="1">
+        <v>9.7251480000000008</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2055</v>
       </c>
-      <c r="C37">
-        <v>9968809000</v>
+      <c r="B37" s="1">
+        <v>9.6518023020000001</v>
+      </c>
+      <c r="C37" s="1">
+        <v>9.9688090000000003</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2060</v>
       </c>
-      <c r="C38">
-        <v>10184290000</v>
+      <c r="B38" s="1">
+        <v>9.8672833020000006</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10.184290000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2065</v>
       </c>
-      <c r="C39">
-        <v>10375719000</v>
+      <c r="B39" s="1">
+        <v>10.058712302</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10.375719</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2070</v>
       </c>
-      <c r="C40">
-        <v>10547989000</v>
+      <c r="B40" s="1">
+        <v>10.230982301999999</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10.547988999999999</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2075</v>
       </c>
-      <c r="C41">
-        <v>10701653000</v>
+      <c r="B41" s="1">
+        <v>10.384646302</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10.701653</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2080</v>
       </c>
-      <c r="C42">
-        <v>10836635000</v>
+      <c r="B42" s="1">
+        <v>10.519628301999999</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10.836634999999999</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2085</v>
       </c>
-      <c r="C43">
-        <v>10953525000</v>
+      <c r="B43" s="1">
+        <v>10.636518302000001</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10.953525000000001</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2090</v>
       </c>
-      <c r="C44">
-        <v>11055270000</v>
+      <c r="B44" s="1">
+        <v>10.738263302</v>
+      </c>
+      <c r="C44" s="1">
+        <v>11.05527</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2095</v>
       </c>
-      <c r="C45">
-        <v>11142461000</v>
+      <c r="B45" s="1">
+        <v>10.825454302000001</v>
+      </c>
+      <c r="C45" s="1">
+        <v>11.142461000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2100</v>
       </c>
-      <c r="C46">
-        <v>11213317000</v>
+      <c r="B46" s="1">
+        <v>10.896310302</v>
+      </c>
+      <c r="C46" s="1">
+        <v>11.213317</v>
       </c>
     </row>
   </sheetData>
